--- a/data/trans_dic/P2A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Estudios-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna limitación</t>
+          <t>Hogares con personas con alguna condición</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,43; 52,57</t>
+          <t>46,61; 52,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,06; 56,6</t>
+          <t>50,4; 56,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,01; 57,38</t>
+          <t>49,7; 56,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59,36; 67,45</t>
+          <t>59,89; 67,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,69; 62,03</t>
+          <t>56,87; 62,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,54; 63,3</t>
+          <t>57,49; 62,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,66; 67,83</t>
+          <t>62,01; 68,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,0; 62,59</t>
+          <t>56,61; 62,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,07; 57,41</t>
+          <t>53,11; 57,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,42; 59,75</t>
+          <t>55,21; 59,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>57,58; 62,31</t>
+          <t>57,56; 62,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,02; 63,56</t>
+          <t>59,23; 63,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,97; 34,49</t>
+          <t>29,78; 34,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,89; 38,51</t>
+          <t>34,02; 38,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,49; 40,62</t>
+          <t>36,35; 40,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,36; 79,71</t>
+          <t>75,21; 79,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,32; 45,18</t>
+          <t>40,56; 45,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,99; 47,85</t>
+          <t>42,76; 47,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,28; 47,74</t>
+          <t>43,29; 47,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,79; 78,5</t>
+          <t>71,75; 78,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,56; 39,07</t>
+          <t>35,61; 39,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,8; 42,2</t>
+          <t>38,83; 42,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40,32; 43,43</t>
+          <t>40,35; 43,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>74,04; 77,81</t>
+          <t>74,15; 78,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,84; 37,29</t>
+          <t>29,15; 37,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,29; 40,51</t>
+          <t>31,64; 40,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,93; 38,03</t>
+          <t>29,7; 38,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74,05; 80,74</t>
+          <t>74,31; 80,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,72; 45,94</t>
+          <t>36,61; 45,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,91; 44,66</t>
+          <t>35,07; 45,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,29; 43,89</t>
+          <t>34,65; 43,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,03; 76,88</t>
+          <t>70,79; 76,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,85; 40,17</t>
+          <t>33,93; 40,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>34,71; 41,25</t>
+          <t>34,52; 41,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,78; 40,4</t>
+          <t>33,51; 39,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>73,63; 78,0</t>
+          <t>73,52; 78,08</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,23; 39,6</t>
+          <t>36,04; 39,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,41; 42,91</t>
+          <t>39,37; 42,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,48; 43,05</t>
+          <t>39,31; 42,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>73,69; 77,24</t>
+          <t>73,49; 76,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,2; 50,67</t>
+          <t>47,38; 50,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,5; 52,04</t>
+          <t>48,64; 52,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,26; 51,72</t>
+          <t>48,36; 51,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,23; 73,79</t>
+          <t>69,38; 74,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,24; 44,68</t>
+          <t>42,26; 44,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,45; 46,94</t>
+          <t>44,58; 47,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>44,49; 46,84</t>
+          <t>44,29; 46,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,83; 74,75</t>
+          <t>71,82; 74,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,61; 52,63</t>
+          <t>46,66; 52,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,4; 56,59</t>
+          <t>50,13; 56,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,7; 56,98</t>
+          <t>49,55; 56,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,87; 62,25</t>
+          <t>56,28; 61,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,49; 62,98</t>
+          <t>57,63; 63,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,01; 68,0</t>
+          <t>61,64; 68,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,11; 57,26</t>
+          <t>53,01; 57,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,21; 59,66</t>
+          <t>55,24; 59,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>57,56; 62,2</t>
+          <t>57,53; 62,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,78; 34,45</t>
+          <t>29,87; 34,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,02; 38,7</t>
+          <t>34,05; 38,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,35; 40,76</t>
+          <t>36,43; 40,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,56; 45,43</t>
+          <t>40,15; 45,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,76; 47,69</t>
+          <t>42,6; 47,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,29; 47,83</t>
+          <t>43,48; 48,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,61; 39,24</t>
+          <t>35,57; 38,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,83; 42,19</t>
+          <t>38,94; 42,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40,35; 43,55</t>
+          <t>40,26; 43,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,15; 37,47</t>
+          <t>28,95; 37,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,64; 40,77</t>
+          <t>30,94; 40,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,7; 38,03</t>
+          <t>30,03; 38,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,61; 45,91</t>
+          <t>36,45; 45,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,07; 45,03</t>
+          <t>35,41; 45,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,65; 43,59</t>
+          <t>35,27; 43,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,93; 40,23</t>
+          <t>33,81; 39,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>34,52; 41,07</t>
+          <t>34,66; 41,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,51; 39,39</t>
+          <t>33,8; 39,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,04; 39,46</t>
+          <t>36,28; 39,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,37; 42,78</t>
+          <t>39,5; 42,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,31; 42,82</t>
+          <t>39,44; 42,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,38; 50,8</t>
+          <t>47,28; 50,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,64; 52,01</t>
+          <t>48,34; 51,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,36; 51,75</t>
+          <t>48,29; 51,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,26; 44,73</t>
+          <t>42,34; 44,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,58; 47,07</t>
+          <t>44,54; 46,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>44,29; 46,82</t>
+          <t>44,35; 46,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P2A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,66; 52,53</t>
+          <t>46,43; 52,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,13; 56,49</t>
+          <t>50,06; 56,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,55; 56,73</t>
+          <t>50,01; 57,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59,89; 67,51</t>
+          <t>59,36; 67,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,28; 61,92</t>
+          <t>56,69; 62,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,63; 63,14</t>
+          <t>57,54; 63,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,64; 68,0</t>
+          <t>61,66; 67,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>56,61; 62,62</t>
+          <t>57,0; 62,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,01; 57,08</t>
+          <t>53,07; 57,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,24; 59,48</t>
+          <t>55,42; 59,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>57,53; 62,32</t>
+          <t>57,58; 62,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,23; 63,74</t>
+          <t>59,02; 63,56</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,87; 34,5</t>
+          <t>29,97; 34,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,05; 38,61</t>
+          <t>33,89; 38,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,43; 40,64</t>
+          <t>36,49; 40,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,21; 79,6</t>
+          <t>75,36; 79,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,15; 45,19</t>
+          <t>40,32; 45,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,6; 47,57</t>
+          <t>42,99; 47,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,48; 48,07</t>
+          <t>43,28; 47,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,75; 78,63</t>
+          <t>71,79; 78,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,57; 38,93</t>
+          <t>35,56; 39,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,94; 42,13</t>
+          <t>38,8; 42,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40,26; 43,52</t>
+          <t>40,32; 43,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>74,15; 78,11</t>
+          <t>74,04; 77,81</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,95; 37,36</t>
+          <t>28,84; 37,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,94; 40,37</t>
+          <t>31,29; 40,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,03; 38,22</t>
+          <t>29,93; 38,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74,31; 80,95</t>
+          <t>74,05; 80,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,45; 45,52</t>
+          <t>36,72; 45,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,41; 45,15</t>
+          <t>34,91; 44,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,27; 43,59</t>
+          <t>35,29; 43,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>70,79; 76,83</t>
+          <t>71,03; 76,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,81; 39,76</t>
+          <t>33,85; 40,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>34,66; 41,26</t>
+          <t>34,71; 41,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,8; 39,68</t>
+          <t>33,78; 40,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>73,52; 78,08</t>
+          <t>73,63; 78,0</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,28; 39,59</t>
+          <t>36,23; 39,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,5; 42,73</t>
+          <t>39,41; 42,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,44; 42,81</t>
+          <t>39,48; 43,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>73,49; 76,99</t>
+          <t>73,69; 77,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,28; 50,71</t>
+          <t>47,2; 50,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,34; 51,84</t>
+          <t>48,5; 52,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,29; 51,77</t>
+          <t>48,26; 51,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,38; 74,09</t>
+          <t>69,23; 73,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,34; 44,87</t>
+          <t>42,24; 44,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,54; 46,99</t>
+          <t>44,45; 46,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>44,35; 46,86</t>
+          <t>44,49; 46,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,82; 74,6</t>
+          <t>71,83; 74,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Estudios-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>68,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>53,34%</t>
+          <t>76,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>53,47%</t>
+          <t>73,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>63,74%</t>
+          <t>62,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>59,41%</t>
+          <t>80,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,38%</t>
+          <t>87,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>64,85%</t>
+          <t>86,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>59,86%</t>
+          <t>70,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>55,14%</t>
+          <t>75,35%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>82,86%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>59,94%</t>
+          <t>80,5%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>61,38%</t>
+          <t>67,56%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,43; 52,57</t>
+          <t>65,51; 71,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,06; 56,6</t>
+          <t>74,29; 79,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,01; 57,38</t>
+          <t>69,83; 76,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59,36; 67,45</t>
+          <t>58,35; 66,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,69; 62,03</t>
+          <t>78,52; 82,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,54; 63,3</t>
+          <t>85,34; 89,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,66; 67,83</t>
+          <t>84,13; 88,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,0; 62,59</t>
+          <t>68,21; 73,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,07; 57,41</t>
+          <t>73,48; 77,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,42; 59,75</t>
+          <t>81,25; 84,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>57,58; 62,31</t>
+          <t>78,46; 82,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,02; 63,56</t>
+          <t>65,37; 69,9</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>47,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,52%</t>
+          <t>47,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>77,43%</t>
+          <t>33,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>53,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,19%</t>
+          <t>59,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>45,58%</t>
+          <t>56,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>74,11%</t>
+          <t>45,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,32%</t>
+          <t>45,66%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>40,48%</t>
+          <t>52,86%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>41,97%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>75,74%</t>
+          <t>39,46%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,97; 34,49</t>
+          <t>36,23; 41,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,89; 38,51</t>
+          <t>44,87; 49,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,49; 40,62</t>
+          <t>45,81; 50,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,36; 79,71</t>
+          <t>24,55; 38,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,32; 45,18</t>
+          <t>50,61; 55,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,99; 47,85</t>
+          <t>57,1; 61,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,28; 47,74</t>
+          <t>54,73; 59,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,79; 78,5</t>
+          <t>38,48; 63,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,56; 39,07</t>
+          <t>43,71; 47,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,8; 42,2</t>
+          <t>51,09; 54,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40,32; 43,43</t>
+          <t>50,56; 53,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>74,04; 77,81</t>
+          <t>33,73; 46,99</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,88%</t>
+          <t>39,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>47,67%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>40,6%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77,82%</t>
+          <t>33,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>52,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>54,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>39,4%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>73,98%</t>
+          <t>35,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>45,54%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>50,87%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>75,85%</t>
+          <t>34,24%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,84; 37,29</t>
+          <t>35,45; 44,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,29; 40,51</t>
+          <t>42,77; 52,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,93; 38,03</t>
+          <t>36,58; 45,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74,05; 80,74</t>
+          <t>29,52; 37,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,72; 45,94</t>
+          <t>47,06; 56,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,91; 44,66</t>
+          <t>48,85; 59,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,29; 43,89</t>
+          <t>44,15; 52,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,03; 76,88</t>
+          <t>32,09; 38,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,85; 40,17</t>
+          <t>42,16; 48,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>34,71; 41,25</t>
+          <t>47,83; 54,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,78; 40,4</t>
+          <t>41,47; 47,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>73,63; 78,0</t>
+          <t>31,72; 36,76</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>55,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>52,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>75,31%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>49,04%</t>
+          <t>63,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,23%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>50,04%</t>
+          <t>63,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>70,95%</t>
+          <t>48,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>56,11%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>62,54%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>58,17%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>43,52%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>45,73%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>45,67%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>73,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,23; 39,6</t>
+          <t>46,5; 50,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,41; 42,91</t>
+          <t>53,93; 57,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,48; 43,05</t>
+          <t>50,57; 53,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>73,69; 77,24</t>
+          <t>29,3; 41,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,2; 50,67</t>
+          <t>62,11; 65,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,5; 52,04</t>
+          <t>67,5; 70,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,26; 51,72</t>
+          <t>62,1; 65,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,23; 73,79</t>
+          <t>44,37; 58,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,24; 44,68</t>
+          <t>54,84; 57,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,45; 46,94</t>
+          <t>61,25; 63,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>44,49; 46,84</t>
+          <t>57,02; 59,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,83; 74,75</t>
+          <t>39,42; 48,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,51; 71,12</t>
+          <t>65,39; 71,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74,29; 79,44</t>
+          <t>73,95; 79,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>69,83; 76,2</t>
+          <t>69,81; 76,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>58,35; 66,7</t>
+          <t>58,75; 66,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>78,52; 82,94</t>
+          <t>78,49; 82,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,34; 89,06</t>
+          <t>85,2; 88,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,13; 88,23</t>
+          <t>83,86; 88,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>68,21; 73,35</t>
+          <t>68,03; 73,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>73,48; 77,14</t>
+          <t>73,5; 77,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>81,25; 84,46</t>
+          <t>81,25; 84,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>78,46; 82,34</t>
+          <t>78,61; 82,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>65,37; 69,9</t>
+          <t>65,22; 69,83</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,23; 41,08</t>
+          <t>36,18; 41,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,87; 49,42</t>
+          <t>44,91; 49,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,81; 50,19</t>
+          <t>45,7; 50,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,55; 38,93</t>
+          <t>23,61; 38,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,61; 55,58</t>
+          <t>50,46; 55,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,1; 61,89</t>
+          <t>56,95; 61,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>54,73; 59,21</t>
+          <t>54,78; 59,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,48; 63,43</t>
+          <t>38,22; 60,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,71; 47,31</t>
+          <t>43,74; 47,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,09; 54,39</t>
+          <t>51,19; 54,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50,56; 53,82</t>
+          <t>50,57; 53,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,73; 46,99</t>
+          <t>34,2; 47,92</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,45; 44,13</t>
+          <t>35,48; 44,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,77; 52,54</t>
+          <t>42,98; 52,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,58; 45,23</t>
+          <t>36,18; 44,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,52; 37,58</t>
+          <t>29,31; 37,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,06; 56,79</t>
+          <t>47,78; 57,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,85; 59,0</t>
+          <t>49,37; 59,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,15; 52,65</t>
+          <t>43,78; 52,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,09; 38,57</t>
+          <t>31,93; 38,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>42,16; 48,67</t>
+          <t>42,47; 48,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,83; 54,39</t>
+          <t>47,14; 54,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,47; 47,79</t>
+          <t>41,48; 47,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,72; 36,76</t>
+          <t>31,76; 36,74</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,5; 50,03</t>
+          <t>46,39; 50,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,93; 57,38</t>
+          <t>53,77; 57,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,57; 53,97</t>
+          <t>50,58; 54,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,3; 41,57</t>
+          <t>29,13; 41,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>62,11; 65,44</t>
+          <t>62,17; 65,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,5; 70,78</t>
+          <t>67,54; 70,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,1; 65,58</t>
+          <t>62,19; 65,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,37; 58,27</t>
+          <t>44,53; 57,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,84; 57,32</t>
+          <t>54,87; 57,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>61,25; 63,67</t>
+          <t>61,36; 63,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>57,02; 59,37</t>
+          <t>56,95; 59,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,42; 48,22</t>
+          <t>39,19; 48,57</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1090</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1766</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1781</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1322</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1487</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>706486</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>749184</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>551564</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>323514</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1061925</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1166980</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>856467</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>534791</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1768410</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1916164</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1408031</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>858305</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>674598; 735003</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>720714; 776282</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>526578; 573696</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>302522; 343714</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1032201; 1090017</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1139752; 1189559</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>834131; 876524</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>513968; 553175</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1724960; 1810784</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1878892; 1952856</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1374830; 1440002</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>828621; 887127</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1470</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1831</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2102</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>652847</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>924388</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>992739</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>778251</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>845391</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1043043</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1131489</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1008486</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1498238</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1967432</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2124228</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1786737</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>612629; 695907</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>881946; 972143</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>948986; 1040134</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>540707; 888741</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>801185; 881829</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1001041; 1084272</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1089181; 1174234</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>855221; 1349720</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1435019; 1551054</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1905296; 2026697</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2055484; 2189397</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1548644; 2170077</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>218331</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>229392</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>222061</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>215109</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>249730</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>248690</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>264962</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>232462</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>468060</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>478082</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>487024</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>447571</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>195629; 243273</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>206797; 254504</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>197841; 244243</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>189530; 241274</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>227649; 272003</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>226430; 271411</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>240414; 287675</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>210882; 254233</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>436523; 503557</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>443065; 510119</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>454589; 519956</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>415151; 480181</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1574</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1491</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2108</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2270</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2695</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3682</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3762</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4186</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1577663</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1902964</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1766365</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1316875</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2157045</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2458713</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2252918</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1775739</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3734709</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4361677</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4019283</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3092614</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1519872; 1638673</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1838857; 1958098</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1708306; 1826709</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1005639; 1443088</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2100896; 2222608</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2400426; 2509820</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2196674; 2313531</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1626972; 2118701</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3652324; 3821214</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4279163; 4442682</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3935176; 4102585</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2784440; 3451212</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>